--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.346035666666667</v>
+        <v>2.274280333333333</v>
       </c>
       <c r="H2">
-        <v>7.038107</v>
+        <v>6.822841</v>
       </c>
       <c r="I2">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877493</v>
       </c>
       <c r="J2">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877492</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N2">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q2">
-        <v>3.016273814264778</v>
+        <v>1.669163323136778</v>
       </c>
       <c r="R2">
-        <v>27.146464328383</v>
+        <v>15.022469908231</v>
       </c>
       <c r="S2">
-        <v>0.01575398898210404</v>
+        <v>0.008461135935921868</v>
       </c>
       <c r="T2">
-        <v>0.01575398898210404</v>
+        <v>0.008461135935921866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.346035666666667</v>
+        <v>2.274280333333333</v>
       </c>
       <c r="H3">
-        <v>7.038107</v>
+        <v>6.822841</v>
       </c>
       <c r="I3">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877493</v>
       </c>
       <c r="J3">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877492</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>23.672064</v>
       </c>
       <c r="O3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q3">
-        <v>18.51183548253867</v>
+        <v>17.94563653486933</v>
       </c>
       <c r="R3">
-        <v>166.606519342848</v>
+        <v>161.510728813824</v>
       </c>
       <c r="S3">
-        <v>0.09668726057004987</v>
+        <v>0.09096801258059568</v>
       </c>
       <c r="T3">
-        <v>0.09668726057004987</v>
+        <v>0.09096801258059566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.346035666666667</v>
+        <v>2.274280333333333</v>
       </c>
       <c r="H4">
-        <v>7.038107</v>
+        <v>6.822841</v>
       </c>
       <c r="I4">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877493</v>
       </c>
       <c r="J4">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877492</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N4">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O4">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P4">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q4">
-        <v>15.33508188050744</v>
+        <v>11.31229008842956</v>
       </c>
       <c r="R4">
-        <v>138.015736924567</v>
+        <v>101.810610795866</v>
       </c>
       <c r="S4">
-        <v>0.08009508614325361</v>
+        <v>0.05734299505509854</v>
       </c>
       <c r="T4">
-        <v>0.08009508614325363</v>
+        <v>0.05734299505509852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.346035666666667</v>
+        <v>2.274280333333333</v>
       </c>
       <c r="H5">
-        <v>7.038107</v>
+        <v>6.822841</v>
       </c>
       <c r="I5">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877493</v>
       </c>
       <c r="J5">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877492</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N5">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q5">
-        <v>5.903246654773112</v>
+        <v>4.747896789322667</v>
       </c>
       <c r="R5">
-        <v>53.129219892958</v>
+        <v>42.731071103904</v>
       </c>
       <c r="S5">
-        <v>0.03083263937050985</v>
+        <v>0.0240675071081071</v>
       </c>
       <c r="T5">
-        <v>0.03083263937050986</v>
+        <v>0.02406750710810709</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.346035666666667</v>
+        <v>2.274280333333333</v>
       </c>
       <c r="H6">
-        <v>7.038107</v>
+        <v>6.822841</v>
       </c>
       <c r="I6">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877493</v>
       </c>
       <c r="J6">
-        <v>0.2908248950424448</v>
+        <v>0.2367408419877492</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N6">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O6">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P6">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q6">
-        <v>12.91517502478067</v>
+        <v>11.02785949282156</v>
       </c>
       <c r="R6">
-        <v>116.236575223026</v>
+        <v>99.25073543539401</v>
       </c>
       <c r="S6">
-        <v>0.06745591997652739</v>
+        <v>0.05590119130802608</v>
       </c>
       <c r="T6">
-        <v>0.0674559199765274</v>
+        <v>0.05590119130802607</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>8.806376</v>
       </c>
       <c r="I7">
-        <v>0.3638923613841484</v>
+        <v>0.3055660932301819</v>
       </c>
       <c r="J7">
-        <v>0.3638923613841485</v>
+        <v>0.3055660932301818</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N7">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O7">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P7">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q7">
-        <v>3.774088874660444</v>
+        <v>2.154422157712889</v>
       </c>
       <c r="R7">
-        <v>33.966799871944</v>
+        <v>19.389799419416</v>
       </c>
       <c r="S7">
-        <v>0.01971205474373513</v>
+        <v>0.01092095571900912</v>
       </c>
       <c r="T7">
-        <v>0.01971205474373514</v>
+        <v>0.01092095571900911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>8.806376</v>
       </c>
       <c r="I8">
-        <v>0.3638923613841484</v>
+        <v>0.3055660932301819</v>
       </c>
       <c r="J8">
-        <v>0.3638923613841485</v>
+        <v>0.3055660932301818</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>23.672064</v>
       </c>
       <c r="O8">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P8">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q8">
         <v>23.16278847556267</v>
@@ -948,10 +948,10 @@
         <v>208.465096280064</v>
       </c>
       <c r="S8">
-        <v>0.1209791739440497</v>
+        <v>0.1174142153917196</v>
       </c>
       <c r="T8">
-        <v>0.1209791739440497</v>
+        <v>0.1174142153917196</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>8.806376</v>
       </c>
       <c r="I9">
-        <v>0.3638923613841484</v>
+        <v>0.3055660932301819</v>
       </c>
       <c r="J9">
-        <v>0.3638923613841485</v>
+        <v>0.3055660932301818</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N9">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O9">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P9">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q9">
-        <v>19.18790052929511</v>
+        <v>14.60099684864178</v>
       </c>
       <c r="R9">
-        <v>172.691104763656</v>
+        <v>131.408971637776</v>
       </c>
       <c r="S9">
-        <v>0.1002183462584302</v>
+        <v>0.07401373935305519</v>
       </c>
       <c r="T9">
-        <v>0.1002183462584302</v>
+        <v>0.07401373935305516</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>8.806376</v>
       </c>
       <c r="I10">
-        <v>0.3638923613841484</v>
+        <v>0.3055660932301819</v>
       </c>
       <c r="J10">
-        <v>0.3638923613841485</v>
+        <v>0.3055660932301818</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N10">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O10">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P10">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q10">
-        <v>7.386390923393779</v>
+        <v>6.128204414549333</v>
       </c>
       <c r="R10">
-        <v>66.477518310544</v>
+        <v>55.15383973094399</v>
       </c>
       <c r="S10">
-        <v>0.03857909738642978</v>
+        <v>0.03106440806354182</v>
       </c>
       <c r="T10">
-        <v>0.03857909738642978</v>
+        <v>0.03106440806354181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>8.806376</v>
       </c>
       <c r="I11">
-        <v>0.3638923613841484</v>
+        <v>0.3055660932301819</v>
       </c>
       <c r="J11">
-        <v>0.3638923613841485</v>
+        <v>0.3055660932301818</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N11">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O11">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P11">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q11">
-        <v>16.16001111861867</v>
+        <v>14.23387664595378</v>
       </c>
       <c r="R11">
-        <v>145.440100067568</v>
+        <v>128.104889813584</v>
       </c>
       <c r="S11">
-        <v>0.08440368905150367</v>
+        <v>0.07215277470285611</v>
       </c>
       <c r="T11">
-        <v>0.08440368905150369</v>
+        <v>0.07215277470285608</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.2753</v>
+        <v>2.075403</v>
       </c>
       <c r="H12">
-        <v>3.8259</v>
+        <v>6.226209000000001</v>
       </c>
       <c r="I12">
-        <v>0.1580917945610786</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="J12">
-        <v>0.1580917945610786</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N12">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O12">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P12">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q12">
-        <v>1.6396400319</v>
+        <v>1.523201215591</v>
       </c>
       <c r="R12">
-        <v>14.7567602871</v>
+        <v>13.708810940319</v>
       </c>
       <c r="S12">
-        <v>0.008563834912801386</v>
+        <v>0.007721241153715901</v>
       </c>
       <c r="T12">
-        <v>0.008563834912801389</v>
+        <v>0.0077212411537159</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.2753</v>
+        <v>2.075403</v>
       </c>
       <c r="H13">
-        <v>3.8259</v>
+        <v>6.226209000000001</v>
       </c>
       <c r="I13">
-        <v>0.1580917945610786</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="J13">
-        <v>0.1580917945610786</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>23.672064</v>
       </c>
       <c r="O13">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P13">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q13">
-        <v>10.0629944064</v>
+        <v>16.376357547264</v>
       </c>
       <c r="R13">
-        <v>90.56694965759999</v>
+        <v>147.387217925376</v>
       </c>
       <c r="S13">
-        <v>0.05255898925875292</v>
+        <v>0.0830131991411522</v>
       </c>
       <c r="T13">
-        <v>0.05255898925875292</v>
+        <v>0.0830131991411522</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.2753</v>
+        <v>2.075403</v>
       </c>
       <c r="H14">
-        <v>3.8259</v>
+        <v>6.226209000000001</v>
       </c>
       <c r="I14">
-        <v>0.1580917945610786</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="J14">
-        <v>0.1580917945610786</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N14">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O14">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P14">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q14">
-        <v>8.336117903099998</v>
+        <v>10.323072508826</v>
       </c>
       <c r="R14">
-        <v>75.02506112789999</v>
+        <v>92.90765257943401</v>
       </c>
       <c r="S14">
-        <v>0.04353951852045925</v>
+        <v>0.05232856399541042</v>
       </c>
       <c r="T14">
-        <v>0.04353951852045927</v>
+        <v>0.05232856399541041</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.2753</v>
+        <v>2.075403</v>
       </c>
       <c r="H15">
-        <v>3.8259</v>
+        <v>6.226209000000001</v>
       </c>
       <c r="I15">
-        <v>0.1580917945610786</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="J15">
-        <v>0.1580917945610786</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N15">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O15">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P15">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q15">
-        <v>3.2089923294</v>
+        <v>4.332710922144</v>
       </c>
       <c r="R15">
-        <v>28.8809309646</v>
+        <v>38.994398299296</v>
       </c>
       <c r="S15">
-        <v>0.01676055720204788</v>
+        <v>0.02196289337008739</v>
       </c>
       <c r="T15">
-        <v>0.01676055720204789</v>
+        <v>0.02196289337008738</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.2753</v>
+        <v>2.075403</v>
       </c>
       <c r="H16">
-        <v>3.8259</v>
+        <v>6.226209000000001</v>
       </c>
       <c r="I16">
-        <v>0.1580917945610786</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="J16">
-        <v>0.1580917945610786</v>
+        <v>0.2160387382692492</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N16">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O16">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P16">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q16">
-        <v>7.0206616818</v>
+        <v>10.063514308034</v>
       </c>
       <c r="R16">
-        <v>63.1859551362</v>
+        <v>90.57162877230601</v>
       </c>
       <c r="S16">
-        <v>0.03666889466701715</v>
+        <v>0.05101284060888327</v>
       </c>
       <c r="T16">
-        <v>0.03666889466701716</v>
+        <v>0.05101284060888327</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6704439999999999</v>
+        <v>0.9024383333333333</v>
       </c>
       <c r="H17">
-        <v>2.011332</v>
+        <v>2.707315</v>
       </c>
       <c r="I17">
-        <v>0.08311118569176491</v>
+        <v>0.09393917176526073</v>
       </c>
       <c r="J17">
-        <v>0.08311118569176493</v>
+        <v>0.09393917176526072</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N17">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O17">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P17">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q17">
-        <v>0.8619829228786665</v>
+        <v>0.6623268667961111</v>
       </c>
       <c r="R17">
-        <v>7.757846305908</v>
+        <v>5.960941801165</v>
       </c>
       <c r="S17">
-        <v>0.00450213419138886</v>
+        <v>0.003357393237855068</v>
       </c>
       <c r="T17">
-        <v>0.004502134191388862</v>
+        <v>0.003357393237855067</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6704439999999999</v>
+        <v>0.9024383333333333</v>
       </c>
       <c r="H18">
-        <v>2.011332</v>
+        <v>2.707315</v>
       </c>
       <c r="I18">
-        <v>0.08311118569176491</v>
+        <v>0.09393917176526073</v>
       </c>
       <c r="J18">
-        <v>0.08311118569176493</v>
+        <v>0.09393917176526072</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>23.672064</v>
       </c>
       <c r="O18">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P18">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q18">
-        <v>5.290264425471999</v>
+        <v>7.120859327573333</v>
       </c>
       <c r="R18">
-        <v>47.61237982924799</v>
+        <v>64.08773394815999</v>
       </c>
       <c r="S18">
-        <v>0.02763103504633839</v>
+        <v>0.03609626326916242</v>
       </c>
       <c r="T18">
-        <v>0.02763103504633839</v>
+        <v>0.0360962632691624</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6704439999999999</v>
+        <v>0.9024383333333333</v>
       </c>
       <c r="H19">
-        <v>2.011332</v>
+        <v>2.707315</v>
       </c>
       <c r="I19">
-        <v>0.08311118569176491</v>
+        <v>0.09393917176526073</v>
       </c>
       <c r="J19">
-        <v>0.08311118569176493</v>
+        <v>0.09393917176526072</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N19">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O19">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P19">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q19">
-        <v>4.382420004254666</v>
+        <v>4.488736091132223</v>
       </c>
       <c r="R19">
-        <v>39.44178003829199</v>
+        <v>40.39862482019</v>
       </c>
       <c r="S19">
-        <v>0.02288936638824652</v>
+        <v>0.02275379869728667</v>
       </c>
       <c r="T19">
-        <v>0.02288936638824653</v>
+        <v>0.02275379869728666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6704439999999999</v>
+        <v>0.9024383333333333</v>
       </c>
       <c r="H20">
-        <v>2.011332</v>
+        <v>2.707315</v>
       </c>
       <c r="I20">
-        <v>0.08311118569176491</v>
+        <v>0.09393917176526073</v>
       </c>
       <c r="J20">
-        <v>0.08311118569176493</v>
+        <v>0.09393917176526072</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N20">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O20">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P20">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q20">
-        <v>1.687014548178667</v>
+        <v>1.883973581706667</v>
       </c>
       <c r="R20">
-        <v>15.183130933608</v>
+        <v>16.95576223536</v>
       </c>
       <c r="S20">
-        <v>0.0088112718676153</v>
+        <v>0.00955002806109434</v>
       </c>
       <c r="T20">
-        <v>0.008811271867615303</v>
+        <v>0.009550028061094337</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6704439999999999</v>
+        <v>0.9024383333333333</v>
       </c>
       <c r="H21">
-        <v>2.011332</v>
+        <v>2.707315</v>
       </c>
       <c r="I21">
-        <v>0.08311118569176491</v>
+        <v>0.09393917176526073</v>
       </c>
       <c r="J21">
-        <v>0.08311118569176493</v>
+        <v>0.09393917176526072</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N21">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O21">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P21">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q21">
-        <v>3.690865287064</v>
+        <v>4.375873543412223</v>
       </c>
       <c r="R21">
-        <v>33.217787583576</v>
+        <v>39.38286189071</v>
       </c>
       <c r="S21">
-        <v>0.01927737819817584</v>
+        <v>0.02218168849986224</v>
       </c>
       <c r="T21">
-        <v>0.01927737819817585</v>
+        <v>0.02218168849986224</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.839594</v>
+        <v>1.419044</v>
       </c>
       <c r="H22">
-        <v>2.518782</v>
+        <v>4.257132</v>
       </c>
       <c r="I22">
-        <v>0.1040797633205632</v>
+        <v>0.1477151547475591</v>
       </c>
       <c r="J22">
-        <v>0.1040797633205632</v>
+        <v>0.1477151547475591</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N22">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O22">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P22">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q22">
-        <v>1.079457329995333</v>
+        <v>1.041479435934667</v>
       </c>
       <c r="R22">
-        <v>9.715115969957999</v>
+        <v>9.373314923412002</v>
       </c>
       <c r="S22">
-        <v>0.005638002360055334</v>
+        <v>0.005279351013626572</v>
       </c>
       <c r="T22">
-        <v>0.005638002360055336</v>
+        <v>0.00527935101362657</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.839594</v>
+        <v>1.419044</v>
       </c>
       <c r="H23">
-        <v>2.518782</v>
+        <v>4.257132</v>
       </c>
       <c r="I23">
-        <v>0.1040797633205632</v>
+        <v>0.1477151547475591</v>
       </c>
       <c r="J23">
-        <v>0.1040797633205632</v>
+        <v>0.1477151547475591</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>23.672064</v>
       </c>
       <c r="O23">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P23">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q23">
-        <v>6.624974300671999</v>
+        <v>11.197233462272</v>
       </c>
       <c r="R23">
-        <v>59.62476870604799</v>
+        <v>100.775101160448</v>
       </c>
       <c r="S23">
-        <v>0.03460222067569466</v>
+        <v>0.05675976288077891</v>
       </c>
       <c r="T23">
-        <v>0.03460222067569466</v>
+        <v>0.05675976288077889</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.839594</v>
+        <v>1.419044</v>
       </c>
       <c r="H24">
-        <v>2.518782</v>
+        <v>4.257132</v>
       </c>
       <c r="I24">
-        <v>0.1040797633205632</v>
+        <v>0.1477151547475591</v>
       </c>
       <c r="J24">
-        <v>0.1040797633205632</v>
+        <v>0.1477151547475591</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N24">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O24">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P24">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q24">
-        <v>5.488084822971333</v>
+        <v>7.058337154381335</v>
       </c>
       <c r="R24">
-        <v>49.39276340674199</v>
+        <v>63.52503438943201</v>
       </c>
       <c r="S24">
-        <v>0.02866425038239353</v>
+        <v>0.03577933286513664</v>
       </c>
       <c r="T24">
-        <v>0.02866425038239354</v>
+        <v>0.03577933286513663</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.839594</v>
+        <v>1.419044</v>
       </c>
       <c r="H25">
-        <v>2.518782</v>
+        <v>4.257132</v>
       </c>
       <c r="I25">
-        <v>0.1040797633205632</v>
+        <v>0.1477151547475591</v>
       </c>
       <c r="J25">
-        <v>0.1040797633205632</v>
+        <v>0.1477151547475591</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N25">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O25">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P25">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q25">
-        <v>2.112640716545333</v>
+        <v>2.962464368512</v>
       </c>
       <c r="R25">
-        <v>19.013766448908</v>
+        <v>26.662179316608</v>
       </c>
       <c r="S25">
-        <v>0.01103431605386669</v>
+        <v>0.01501699287293229</v>
       </c>
       <c r="T25">
-        <v>0.01103431605386669</v>
+        <v>0.01501699287293228</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.839594</v>
+        <v>1.419044</v>
       </c>
       <c r="H26">
-        <v>2.518782</v>
+        <v>4.257132</v>
       </c>
       <c r="I26">
-        <v>0.1040797633205632</v>
+        <v>0.1477151547475591</v>
       </c>
       <c r="J26">
-        <v>0.1040797633205632</v>
+        <v>0.1477151547475591</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N26">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O26">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P26">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q26">
-        <v>4.622053966964</v>
+        <v>6.880865835565335</v>
       </c>
       <c r="R26">
-        <v>41.598485702676</v>
+        <v>61.927792520088</v>
       </c>
       <c r="S26">
-        <v>0.02414097384855297</v>
+        <v>0.03487971511508471</v>
       </c>
       <c r="T26">
-        <v>0.02414097384855297</v>
+        <v>0.0348797151150847</v>
       </c>
     </row>
   </sheetData>
